--- a/Information Architecture.xlsx
+++ b/Information Architecture.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365deu-my.sharepoint.com/personal/20242089_office_deu_ac_kr/Documents/HyperIndex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyeon/Desktop/PROJECTS/Cryptoindex-V0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{95D9805F-20B6-9540-B0E8-811F4733DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49211B6-F6E6-1C4A-B64E-89E40BB49BD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0517B-B656-6D43-8020-B892A3C77CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22480" yWindow="660" windowWidth="22180" windowHeight="23100" activeTab="3" xr2:uid="{819D56CC-290A-441A-B61E-52AA871FC8F4}"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="22180" windowHeight="16180" firstSheet="6" activeTab="10" xr2:uid="{819D56CC-290A-441A-B61E-52AA871FC8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="견본" sheetId="1" r:id="rId1"/>
     <sheet name="랜딩페이지 - Header" sheetId="3" r:id="rId2"/>
     <sheet name="랜딩페이지 - Sidebar" sheetId="8" r:id="rId3"/>
-    <sheet name="랜딩페이지 - Main" sheetId="10" r:id="rId4"/>
+    <sheet name="랜딩페이지 - Trending" sheetId="10" r:id="rId4"/>
     <sheet name="랜딩페이지 - Top traders" sheetId="13" r:id="rId5"/>
     <sheet name="랜딩페이지 - Footers" sheetId="15" r:id="rId6"/>
     <sheet name="Trading - IndexInfobar" sheetId="19" r:id="rId7"/>
@@ -28,7 +28,6 @@
     <sheet name="Governance" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -452,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Search Indices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,915 +1482,920 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Maximum Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per single transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fee Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trading Fees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Fees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas + $__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume-based Fee Discounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30D Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;$__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fee: __%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$__ - $__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;$__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalancing Rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기간) Rebalancing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적인 주기(둘째주 화요일 이런식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리밸런싱 기준 맞춰서 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(체크표시)규칙 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(체크표시)규칙 2</t>
+  </si>
+  <si>
+    <t>(체크표시)규칙 3</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Cap Weighted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 우리 리밸런싱 방법에 맞춰 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on 30-day average market capitalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주의표시) Emergency Rebalancing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extraordinary market conditions may trigger emergency rebalancing outside of the regular schedule. Users will be notified 24 hours in advance when possible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slippage &amp; Liquidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected Slippage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__% - __%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidity Metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liquidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg Spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정보 아이콘) Slippage Protection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All trades include automatic slippage protection. Orders exceeding expected slippage will be rejected. You can adjust slippage tolerance in your trade settings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Overview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs Btc+-__%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs를 할수있는 항목을 드롭다운으로 선택하게 해야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs Btc+-__%</t>
+  </si>
+  <si>
+    <t>Performance Chart(기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 지금 90일로 고정. 수정할수있게 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 보는 인덱스는 고정. 다른 인덱스 그래프 같이 보이게 토글 껐다 켰다 할 수 있음 다만 비교군 인덱스 더 필요할듯. 토글 버튼 색깔 브랜드색상으로 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk Metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재서 파트. 같이 얘기하면서 수정할부분들 꽤 있을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatility (기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annualized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(High/Moderate/Low) Risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Drawdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(날짜) - (날짜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기간) Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk-adjusted return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excellent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Returns Heatmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜있는지 모르겠음 걍 없애야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024 Performance by Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(빨강) Negative Returns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(초록) Positive Returns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark Comparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교하는게 위에 Performance Chart랑 똑같으니까 걍 통합해도 될듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs Bitcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outperform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타원형 뱃지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대 수익률 우위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha(기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 의미인지 모르겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs Ethereum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs S&amp;P 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정보 아이콘) Performance Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Past performance is not indicative of future results. Cryptocurrency investments are highly volatile and speculative. Alpha calculations are based on risk-adjusted returns using CAPM methodology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 methodology 쓰는진 모르겠네 확인후 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trading Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trading Data Analytics (줄바꿈) Real-time market insights • Meme coin index focused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간조정버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드색상으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analytics Cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드와 얘기해서 뺄거빼고 수정 많이 해야할부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index Flow(줄바꿈) +-__(기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(윗화살표/아랫화살표)__%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whale vs Retail(줄바꿈) Whale Favored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taker Buy Volume(줄바꿈) __% bullish/bearish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index Premium(줄바꿈) Spot Premium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidity Depth(줄바꿈) 5m intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatility(줄바꿈) 30d rolling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Cap(줄바꿈) Index Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Traders(줄바꿈) 24h unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Allocation Changes(줄바꿈) 24h view • Weekly rebalancing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebalanced(줄바꿈) (기간) ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(인덱스 구성요소 이름) (구성 비율) 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Sentiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fear &amp; Greed Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social Sentiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whale Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High/Moderate/Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retail Interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rising/Sinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$__ (윗화살표)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$__ (아랫화살표)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg. Trade Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$__ (저울 아이콘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price Impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__% (레이더 아이콘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBookTrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베타런치때는 디폴트 탭을 trades로 두고 orderbook 열면 베타때 제한된 기능이라고 써붙일거임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spread 기준으로 위는 매도호가 아래는 매수호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화폐단위 고민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size(화폐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYPE로만 갈지 아니면 다른 화폐 단위로 보게 할지 모르겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total(화폐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.xxx(0.xxx%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수 매도 구분없이 체결시간 순으로 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HH:MM::SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade-panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy/Sell tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭다운에서 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Price(화폐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$__(Live)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity(이니셜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력창. 주문량 입력 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slidebar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문량 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__% of balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 단위로 표시해야할지 모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trading fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY/SELL (수량) (이니셜) (Market)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 체결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portfolio Balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash Balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYPE나 USDC로만 체결할 수 있게 해야하는지 모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이니셜) Holdings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(인덱스 수량) (이니셜) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holdings Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 들고 있는 해당인덱스의 총 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit Price(화폐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger Price(화폐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 제일 건들 게 많음. Buy settings랑 Sell settings랑 따로 토글켜는게 아니고 동시에 둘다 보이게 하는게 맞고, 프리셋 설정하는 창 자체가 없음. 그리고 프리셋 설정 한대로 거래에 반영되는지를 모름  그리고 above the fold가 아닌게 좀 이상해서 어떻게할지 고민중 여백 줄이고 주문 방식 설명란을 툴팁으로 빼면 될것같다 그 방향으로 수정하겠음 근데 어중간하게 할바엔 그냥 이 기능을 없애는것도 고려해야겠다 하이퍼리퀴드도 없는 기능이고 하니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 1/2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy/Sell Settings toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slippagge:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 우선순위를 빠르게 가져가기 위한 추가 수수료.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High/Normal/Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 하면 안되고 숫자로 설정할 수 있게 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEV Protection:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록생산자가 범할 수 있는 스캠 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On/Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결이 되기 위한 슬리피지의 최대 마지노선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 프리셋. 근데 저걸 왜 둘다 보여주지? 할거면 둘중에 하나를 산다고 해야하는거 아닌가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스 share의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 밸런스의 몇퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whale Alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY/SELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(숫자) HYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 화폐단위 이게맞는지 물어바야댐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradingBottomTabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조그만 히어로 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(숫자) Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱃지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 없애야되네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side/Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수인지 매도인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 share 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P&amp;L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강제청산. 이것도 없애자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기열숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Funding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱숏 교환비용 이것도 없애야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Trades settle immediately on-chain</t>
-  </si>
-  <si>
-    <t>Maximum Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Per single transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fee Structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trading Fees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stop Loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other Fees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas + $__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deposit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inactivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume-based Fee Discounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30D Volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;$__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fee: __%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$__ - $__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;$__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebalancing Rules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기간) Rebalancing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구체적인 주기(둘째주 화요일 이런식)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inclusion Criteria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리밸런싱 기준 맞춰서 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(체크표시)규칙 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(체크표시)규칙 2</t>
-  </si>
-  <si>
-    <t>(체크표시)규칙 3</t>
-  </si>
-  <si>
-    <t>Methodology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market Cap Weighted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것도 우리 리밸런싱 방법에 맞춰 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Based on 30-day average market capitalization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주의표시) Emergency Rebalancing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extraordinary market conditions may trigger emergency rebalancing outside of the regular schedule. Users will be notified 24 hours in advance when possible.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slippage &amp; Liquidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected Slippage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__% - __%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liquidity Metrics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Liquidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24h Volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg Spread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정보 아이콘) Slippage Protection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All trades include automatic slippage protection. Orders exceeding expected slippage will be rejected. You can adjust slippage tolerance in your trade settings.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Performance Overview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs Btc+-__%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs를 할수있는 항목을 드롭다운으로 선택하게 해야겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs Btc+-__%</t>
-  </si>
-  <si>
-    <t>Performance Chart(기간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간 지금 90일로 고정. 수정할수있게 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 보는 인덱스는 고정. 다른 인덱스 그래프 같이 보이게 토글 껐다 켰다 할 수 있음 다만 비교군 인덱스 더 필요할듯. 토글 버튼 색깔 브랜드색상으로 바꾸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Risk Metrics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재서 파트. 같이 얘기하면서 수정할부분들 꽤 있을듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volatility (기간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annualized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gauge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(High/Moderate/Low) Risk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Drawdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(날짜) - (날짜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기간) Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharpe Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Risk-adjusted return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excellent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monthly Returns Heatmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜있는지 모르겠음 걍 없애야겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024 Performance by Month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(빨강) Negative Returns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(초록) Positive Returns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark Comparison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교하는게 위에 Performance Chart랑 똑같으니까 걍 통합해도 될듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs Bitcoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outperform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타원형 뱃지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상대 수익률 우위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha(기간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 의미인지 모르겠음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs Ethereum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs S&amp;P 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정보 아이콘) Performance Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Past performance is not indicative of future results. Cryptocurrency investments are highly volatile and speculative. Alpha calculations are based on risk-adjusted returns using CAPM methodology.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저 methodology 쓰는진 모르겠네 확인후 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trading Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trading Data Analytics (줄바꿈) Real-time market insights • Meme coin index focused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간조정버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드색상으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analytics Cards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백엔드와 얘기해서 뺄거빼고 수정 많이 해야할부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index Flow(줄바꿈) +-__(기간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(윗화살표/아랫화살표)__%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whale vs Retail(줄바꿈) Whale Favored</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taker Buy Volume(줄바꿈) __% bullish/bearish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index Premium(줄바꿈) Spot Premium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liquidity Depth(줄바꿈) 5m intervals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volatility(줄바꿈) 30d rolling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market Cap(줄바꿈) Index Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active Traders(줄바꿈) 24h unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset Allocation Changes(줄바꿈) 24h view • Weekly rebalancing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebalanced(줄바꿈) (기간) ago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(인덱스 구성요소 이름) (구성 비율) 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market Sentiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fear &amp; Greed Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social Sentiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whale Activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High/Moderate/Low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retail Interest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rising/Sinking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24h High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$__ (윗화살표)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24h Low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$__ (아랫화살표)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg. Trade Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$__ (저울 아이콘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price Impact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__% (레이더 아이콘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderBookTrades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베타런치때는 디폴트 탭을 trades로 두고 orderbook 열면 베타때 제한된 기능이라고 써붙일거임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spread 기준으로 위는 매도호가 아래는 매수호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화폐단위 고민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size(화폐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HYPE로만 갈지 아니면 다른 화폐 단위로 보게 할지 모르겠음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total(화폐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.xxx(0.xxx%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매수 매도 구분없이 체결시간 순으로 정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체결 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HH:MM::SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade-panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy/Sell tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드롭다운에서 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market Price(화폐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$__(Live)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity(이니셜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력창. 주문량 입력 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x.xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slidebar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문량 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__% of balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subtotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 단위로 표시해야할지 모름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trading fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUY/SELL (수량) (이니셜) (Market)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 체결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portfolio Balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash Balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HYPE나 USDC로만 체결할 수 있게 해야하는지 모름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이니셜) Holdings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(인덱스 수량) (이니셜) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holdings Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 들고 있는 해당인덱스의 총 가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Portfolio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit Price(화폐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger Price(화폐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Presets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기가 제일 건들 게 많음. Buy settings랑 Sell settings랑 따로 토글켜는게 아니고 동시에 둘다 보이게 하는게 맞고, 프리셋 설정하는 창 자체가 없음. 그리고 프리셋 설정 한대로 거래에 반영되는지를 모름  그리고 above the fold가 아닌게 좀 이상해서 어떻게할지 고민중 여백 줄이고 주문 방식 설명란을 툴팁으로 빼면 될것같다 그 방향으로 수정하겠음 근데 어중간하게 할바엔 그냥 이 기능을 없애는것도 고려해야겠다 하이퍼리퀴드도 없는 기능이고 하니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preset 1/2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy/Sell Settings toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy Settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slippagge:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체결 우선순위를 빠르게 가져가기 위한 추가 수수료.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High/Normal/Low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이렇게 하면 안되고 숫자로 설정할 수 있게 해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEV Protection:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록생산자가 범할 수 있는 스캠 방지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On/Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체결이 되기 위한 슬리피지의 최대 마지노선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active Preset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 프리셋. 근데 저걸 왜 둘다 보여주지? 할거면 둘중에 하나를 산다고 해야하는거 아닌가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덱스 share의 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balance:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 밸런스의 몇퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whale Alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUY/SELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(숫자) HYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것도 화폐단위 이게맞는지 물어바야댐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TradingBottomTabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active positions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조그만 히어로 섹션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(숫자) Open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뱃지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포지션목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덱스이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레버리지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이거 없애야되네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side/Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매수인지 매도인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x.xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문한 share 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P&amp;L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강제청산. 이것도 없애자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기열숫자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Funding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱숏 교환비용 이것도 없애야됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3125,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71035B1E-2A77-C849-9D3E-F3DE8E7424B4}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="116" workbookViewId="0">
       <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
@@ -3163,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -3192,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -3200,50 +3200,50 @@
     </row>
     <row r="5" spans="1:10">
       <c r="D5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="E6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="3"/>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="F8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="F10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="E11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="C12" s="3"/>
       <c r="F12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -3251,40 +3251,40 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="F14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="G17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="4:10">
@@ -3294,26 +3294,26 @@
     </row>
     <row r="19" spans="4:10">
       <c r="F19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="G20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="E21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -3321,117 +3321,117 @@
     </row>
     <row r="22" spans="4:10">
       <c r="E22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="4:10">
       <c r="F23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="4:10">
       <c r="G24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="4:10">
       <c r="F25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="4:10">
       <c r="G26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="4:10">
       <c r="F27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="4:10">
       <c r="G28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="4:10">
       <c r="F29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="4:10">
       <c r="G30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="4:10">
       <c r="D31" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="4:10">
       <c r="E32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="F34" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="F36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I37" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="F38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
@@ -3439,39 +3439,39 @@
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="F40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="G41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I41" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="F42" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="G43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="5:10">
@@ -3481,26 +3481,26 @@
     </row>
     <row r="45" spans="5:10">
       <c r="F45" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="G46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I46" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I47" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J47" t="s">
         <v>22</v>
@@ -3508,139 +3508,139 @@
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="4:10">
       <c r="F49" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="4:10">
       <c r="G50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I50" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="4:10">
       <c r="F51" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="4:10">
       <c r="G52" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="4:10">
       <c r="F53" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I53" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="4:10">
       <c r="G54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I54" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="4:10">
       <c r="F55" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="4:10">
       <c r="G56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I56" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="4:10">
       <c r="D57" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="4:10">
       <c r="E58" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="4:10">
       <c r="E59" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="4:10">
       <c r="F60" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="4:10">
       <c r="E61" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="4:10">
       <c r="F62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="4:10">
       <c r="E63" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="4:10">
       <c r="F64" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="F66" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="G67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="F68" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="G69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="5:10">
@@ -3650,26 +3650,26 @@
     </row>
     <row r="71" spans="5:10">
       <c r="F71" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="G72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I72" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I73" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J73" t="s">
         <v>22</v>
@@ -3677,82 +3677,82 @@
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="F75" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I75" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="G76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I76" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="F77" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="G78" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="F79" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I79" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="G80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I80" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="3:10">
       <c r="F81" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="3:10">
       <c r="G82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I82" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="3:10" ht="162">
       <c r="C83" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J83" t="s">
         <v>15</v>
@@ -3760,15 +3760,15 @@
     </row>
     <row r="84" spans="3:10">
       <c r="D84" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="3:10">
       <c r="E85" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I85" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J85" t="s">
         <v>15</v>
@@ -3776,25 +3776,25 @@
     </row>
     <row r="86" spans="3:10">
       <c r="E86" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="3:10">
       <c r="F87" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="3:10">
       <c r="G88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="3:10">
       <c r="F89" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I89" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J89" t="s">
         <v>15</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="90" spans="3:10">
       <c r="G90" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I90" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J90" t="s">
         <v>15</v>
@@ -3813,28 +3813,28 @@
     </row>
     <row r="91" spans="3:10">
       <c r="F91" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I91" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="3:10">
       <c r="G92" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93" spans="3:10">
       <c r="E93" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="3:10">
       <c r="F94" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I94" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J94" t="s">
         <v>22</v>
@@ -3842,15 +3842,15 @@
     </row>
     <row r="95" spans="3:10">
       <c r="G95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="3:10">
       <c r="F96" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I96" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J96" t="s">
         <v>15</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="97" spans="3:10">
       <c r="G97" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I97" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J97" t="s">
         <v>15</v>
@@ -3869,18 +3869,18 @@
     </row>
     <row r="98" spans="3:10">
       <c r="F98" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I98" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="3:10" ht="36">
       <c r="E99" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J99" t="s">
         <v>15</v>
@@ -3888,15 +3888,15 @@
     </row>
     <row r="100" spans="3:10">
       <c r="F100" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="3:10">
       <c r="G101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I101" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J101" t="s">
         <v>15</v>
@@ -3904,15 +3904,15 @@
     </row>
     <row r="102" spans="3:10">
       <c r="F102" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="103" spans="3:10">
       <c r="G103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I103" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J103" t="s">
         <v>15</v>
@@ -3920,23 +3920,23 @@
     </row>
     <row r="104" spans="3:10">
       <c r="C104" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="3:10">
       <c r="D105" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106" spans="3:10">
       <c r="D106" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I106" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3952,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F2BC46-613E-F646-99B6-C37A9B51AD80}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3990,10 +3990,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -4004,22 +4004,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="18">
       <c r="C4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="C5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -4038,18 +4038,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="E8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -4057,10 +4057,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="E9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -4068,45 +4068,45 @@
     </row>
     <row r="10" spans="1:10">
       <c r="D10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="E11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="C12" s="3"/>
       <c r="E12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="D13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="E14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="4:10">
@@ -4116,7 +4116,7 @@
     </row>
     <row r="18" spans="4:10">
       <c r="D18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="4:10">
@@ -4131,12 +4131,12 @@
     </row>
     <row r="21" spans="4:10">
       <c r="D21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="E22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:10">
@@ -4146,10 +4146,10 @@
     </row>
     <row r="24" spans="4:10">
       <c r="D24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -4157,15 +4157,15 @@
     </row>
     <row r="25" spans="4:10">
       <c r="E25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="4:10">
       <c r="D26" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -4227,10 +4227,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -4314,10 +4314,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -4975,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBDBB6E-9CD4-1F4E-B692-C2F066168C3A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5015,16 +5015,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>587</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
         <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -5043,21 +5043,21 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
         <v>106</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
         <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -5145,15 +5145,15 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
         <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="C19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="24" spans="2:7">
       <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
         <v>128</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -5212,17 +5212,17 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="29" spans="2:7" ht="36">
       <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="30" spans="2:7">
       <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
         <v>135</v>
-      </c>
-      <c r="F30" t="s">
-        <v>136</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -5260,18 +5260,18 @@
     </row>
     <row r="31" spans="2:7" ht="36">
       <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
         <v>139</v>
-      </c>
-      <c r="F32" t="s">
-        <v>140</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="33" spans="3:7">
       <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
         <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="34" spans="3:7">
       <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
         <v>143</v>
-      </c>
-      <c r="F34" t="s">
-        <v>144</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
@@ -5301,15 +5301,15 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
         <v>146</v>
-      </c>
-      <c r="F36" t="s">
-        <v>147</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="37" spans="3:7">
       <c r="C37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -5325,7 +5325,7 @@
         <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
@@ -5333,15 +5333,15 @@
     </row>
     <row r="39" spans="3:7">
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="3:7">
       <c r="D40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
         <v>150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>151</v>
       </c>
       <c r="G40" t="s">
         <v>22</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="41" spans="3:7">
       <c r="C41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="3:7">
@@ -5357,7 +5357,7 @@
         <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
         <v>15</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="43" spans="3:7">
       <c r="C43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -5373,7 +5373,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
@@ -5381,15 +5381,15 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="3:7">
       <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
         <v>156</v>
-      </c>
-      <c r="F46" t="s">
-        <v>157</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="47" spans="3:7">
       <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" t="s">
         <v>158</v>
-      </c>
-      <c r="F47" t="s">
-        <v>159</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
@@ -5420,7 +5420,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5459,24 +5459,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" t="s">
-        <v>163</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -5484,10 +5484,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
         <v>164</v>
-      </c>
-      <c r="F5" t="s">
-        <v>165</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -5495,10 +5495,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
         <v>166</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="7" spans="1:7" ht="36">
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -5517,15 +5517,15 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
         <v>171</v>
-      </c>
-      <c r="F9" t="s">
-        <v>172</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -5533,15 +5533,15 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36">
       <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -5549,10 +5549,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
         <v>176</v>
-      </c>
-      <c r="F12" t="s">
-        <v>177</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -5560,10 +5560,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
         <v>178</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -5582,15 +5582,15 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
         <v>181</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="17" spans="3:7">
       <c r="D17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="D18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -5617,15 +5617,15 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="D20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" t="s">
         <v>187</v>
-      </c>
-      <c r="F20" t="s">
-        <v>188</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -5636,7 +5636,7 @@
         <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -5644,15 +5644,15 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
         <v>191</v>
-      </c>
-      <c r="F23" t="s">
-        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="24" spans="3:7">
       <c r="D24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
         <v>193</v>
-      </c>
-      <c r="F24" t="s">
-        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="2" spans="1:6" ht="36">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
         <v>197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
         <v>199</v>
-      </c>
-      <c r="E6" t="s">
-        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
         <v>201</v>
-      </c>
-      <c r="E8" t="s">
-        <v>202</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
         <v>203</v>
-      </c>
-      <c r="E9" t="s">
-        <v>204</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
         <v>205</v>
-      </c>
-      <c r="E10" t="s">
-        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" t="s">
         <v>207</v>
-      </c>
-      <c r="E11" t="s">
-        <v>208</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -5837,8 +5837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684DD772-552D-A54F-85AF-74078F630812}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="2" spans="1:7" ht="36">
       <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="3" spans="1:7" ht="36">
       <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="4" spans="1:7" ht="72">
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -5918,13 +5918,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -5932,13 +5932,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -5946,13 +5946,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -5960,13 +5960,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -5974,13 +5974,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -5988,13 +5988,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -6002,13 +6002,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -6016,37 +6016,37 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54">
       <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" t="s">
         <v>233</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>234</v>
-      </c>
-      <c r="F16" t="s">
-        <v>235</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -6054,13 +6054,13 @@
     </row>
     <row r="17" spans="2:7">
       <c r="D17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
         <v>236</v>
-      </c>
-      <c r="E17" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" t="s">
-        <v>237</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -6068,15 +6068,15 @@
     </row>
     <row r="18" spans="2:7">
       <c r="C18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="D19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
         <v>239</v>
-      </c>
-      <c r="F19" t="s">
-        <v>240</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="20" spans="2:7">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
@@ -6095,18 +6095,18 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" t="s">
         <v>242</v>
-      </c>
-      <c r="F21" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="36">
       <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
@@ -6114,15 +6114,15 @@
     </row>
     <row r="23" spans="2:7">
       <c r="D23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="36">
       <c r="D24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
@@ -6130,38 +6130,38 @@
     </row>
     <row r="25" spans="2:7">
       <c r="D25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="D26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="E27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="D28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" t="s">
         <v>252</v>
-      </c>
-      <c r="F28" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="E29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" t="s">
         <v>254</v>
-      </c>
-      <c r="F30" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -6171,46 +6171,46 @@
     </row>
     <row r="32" spans="2:7">
       <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" t="s">
         <v>256</v>
-      </c>
-      <c r="F32" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="E33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" t="s">
         <v>258</v>
-      </c>
-      <c r="F34" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="E35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="D36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="E37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="D38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="39" spans="4:7">
       <c r="D39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" t="s">
         <v>22</v>
@@ -6237,8 +6237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7070F5D-093E-C74A-8D76-CF35DBBFBFF2}">
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F263" sqref="F263"/>
+    <sheetView topLeftCell="A264" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6275,10 +6275,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -6289,16 +6289,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -6306,18 +6306,18 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -6325,49 +6325,49 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" t="s">
         <v>271</v>
       </c>
-      <c r="I7" t="s">
-        <v>272</v>
-      </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" t="s">
         <v>274</v>
-      </c>
-      <c r="I10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="3"/>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" t="s">
         <v>277</v>
-      </c>
-      <c r="I12" t="s">
-        <v>278</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -6375,15 +6375,15 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I14" t="s">
         <v>280</v>
-      </c>
-      <c r="I14" t="s">
-        <v>281</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -6391,15 +6391,15 @@
     </row>
     <row r="15" spans="1:10">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="D16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" t="s">
         <v>283</v>
-      </c>
-      <c r="I16" t="s">
-        <v>284</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -6407,21 +6407,21 @@
     </row>
     <row r="17" spans="3:10">
       <c r="E17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" t="s">
         <v>285</v>
       </c>
-      <c r="I17" t="s">
-        <v>286</v>
-      </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="D18" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" t="s">
         <v>287</v>
-      </c>
-      <c r="I18" t="s">
-        <v>288</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="19" spans="3:10">
       <c r="E19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -6439,52 +6439,52 @@
     </row>
     <row r="21" spans="3:10">
       <c r="D21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="162">
       <c r="E22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="D24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="D25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="3:10">
       <c r="E26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="3:10">
       <c r="F27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="3:10">
       <c r="E28" t="s">
+        <v>297</v>
+      </c>
+      <c r="I28" t="s">
         <v>298</v>
-      </c>
-      <c r="I28" t="s">
-        <v>299</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -6492,42 +6492,42 @@
     </row>
     <row r="29" spans="3:10">
       <c r="F29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="3:10">
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="F31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="E32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="F33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="F34" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="E35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="F36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="4:7">
@@ -6537,12 +6537,12 @@
     </row>
     <row r="38" spans="4:7">
       <c r="E38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="F39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="4:7">
@@ -6552,77 +6552,77 @@
     </row>
     <row r="41" spans="4:7">
       <c r="D41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="4:7">
       <c r="E42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="4:7">
       <c r="F43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="4:7">
       <c r="G44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="4:7">
       <c r="F45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="4:7">
       <c r="G46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="4:7">
       <c r="E47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="4:7">
       <c r="F48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="3:10">
       <c r="G49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="3:10">
       <c r="F50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="3:10">
       <c r="G51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="3:10">
       <c r="F52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="3:10">
       <c r="G53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="3:10">
       <c r="F54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="3:10">
       <c r="G55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="3:10">
@@ -6632,35 +6632,35 @@
     </row>
     <row r="57" spans="3:10">
       <c r="E57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="3:10">
       <c r="F58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="3:10">
       <c r="E59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="3:10">
       <c r="F60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="3:10">
       <c r="E61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="3:10">
       <c r="F62" t="s">
+        <v>319</v>
+      </c>
+      <c r="I62" t="s">
         <v>320</v>
-      </c>
-      <c r="I62" t="s">
-        <v>321</v>
       </c>
       <c r="J62" t="s">
         <v>15</v>
@@ -6668,33 +6668,33 @@
     </row>
     <row r="63" spans="3:10">
       <c r="C63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="3:10">
       <c r="D64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="4:10">
       <c r="E65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="4:10">
       <c r="F66" t="s">
+        <v>324</v>
+      </c>
+      <c r="I66" t="s">
         <v>325</v>
-      </c>
-      <c r="I66" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="67" spans="4:10">
       <c r="F67" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67" t="s">
         <v>327</v>
-      </c>
-      <c r="I67" t="s">
-        <v>328</v>
       </c>
       <c r="J67" t="s">
         <v>15</v>
@@ -6702,40 +6702,40 @@
     </row>
     <row r="68" spans="4:10">
       <c r="E68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="4:10">
       <c r="F69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="4:10">
       <c r="G70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="4:10">
       <c r="H71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="4:10">
       <c r="H72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="4:10">
       <c r="G73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="4:10">
       <c r="H74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="4:10">
@@ -6743,95 +6743,95 @@
         <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="4:10">
       <c r="D76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="4:10">
       <c r="E77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="4:10">
       <c r="F78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="4:10">
       <c r="E79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="4:10">
       <c r="F80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="3:9">
       <c r="E81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="3:9">
       <c r="F82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="3:9">
       <c r="E83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="3:9">
       <c r="F84" t="s">
+        <v>341</v>
+      </c>
+      <c r="I84" t="s">
         <v>342</v>
-      </c>
-      <c r="I84" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="85" spans="3:9">
       <c r="D85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="3:9">
       <c r="E86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="3:9">
       <c r="F87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="3:9">
       <c r="G88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="3:9">
       <c r="G89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="3:9">
       <c r="F90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="3:9">
       <c r="G91" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="3:9">
       <c r="G92" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="3:9">
@@ -6841,7 +6841,7 @@
     </row>
     <row r="94" spans="3:9">
       <c r="E94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="3:9">
@@ -6851,97 +6851,97 @@
     </row>
     <row r="96" spans="3:9">
       <c r="C96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="4:7">
       <c r="D97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="4:7">
       <c r="E98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="4:7">
       <c r="F99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="4:7">
       <c r="G100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="4:7" ht="36">
       <c r="F101" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="4:7">
       <c r="E102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="4:7">
       <c r="F103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="4:7">
       <c r="F104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="4:7">
       <c r="E105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="4:7">
       <c r="F106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="4:7">
       <c r="F107" t="s">
-        <v>360</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="4:7">
       <c r="E108" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="4:7">
       <c r="F109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="4:7">
       <c r="F110" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="4:7">
       <c r="D111" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="4:7">
       <c r="E112" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="F113" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="G114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="5:8">
@@ -6951,133 +6951,133 @@
     </row>
     <row r="116" spans="5:8">
       <c r="G116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="F117" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="G118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="F120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="G121" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="5:8">
       <c r="F122" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="5:8">
       <c r="G123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="5:8">
       <c r="F124" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="5:8">
       <c r="E125" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G125" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="5:8">
       <c r="F126" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="5:8">
       <c r="G127" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="5:8">
       <c r="H128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="4:10">
       <c r="F129" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="4:10">
       <c r="G130" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="4:10">
       <c r="H131" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="4:10">
       <c r="F132" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="4:10">
       <c r="G133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="4:10">
       <c r="H134" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="4:10">
       <c r="D135" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="4:10">
       <c r="E136" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="4:10">
       <c r="F137" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="4:10">
       <c r="G138" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="4:10">
       <c r="E139" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I139" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="4:10">
       <c r="F140" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J140" t="s">
         <v>15</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="141" spans="4:10">
       <c r="F141" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J141" t="s">
         <v>15</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="142" spans="4:10">
       <c r="F142" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J142" t="s">
         <v>15</v>
@@ -7101,15 +7101,15 @@
     </row>
     <row r="143" spans="4:10">
       <c r="E143" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="4:10">
       <c r="F144" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I144" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J144" t="s">
         <v>15</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="145" spans="4:10">
       <c r="G145" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J145" t="s">
         <v>15</v>
@@ -7125,87 +7125,87 @@
     </row>
     <row r="146" spans="4:10">
       <c r="E146" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="4:10" ht="90">
       <c r="F147" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="4:10">
       <c r="D148" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="4:10">
       <c r="E149" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="4:10">
       <c r="F150" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="4:10">
       <c r="G151" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="4:10">
       <c r="F152" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="4:10">
       <c r="G153" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" spans="4:10">
       <c r="F154" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="4:10">
       <c r="G155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" spans="4:10">
       <c r="E156" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="4:10">
       <c r="F157" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="4:10">
       <c r="G158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="4:10">
       <c r="F159" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="4:10">
       <c r="G160" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="3:10">
       <c r="F161" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="3:10">
       <c r="G162" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="3:10">
@@ -7215,27 +7215,27 @@
     </row>
     <row r="164" spans="3:10">
       <c r="E164" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="3:10" ht="108">
       <c r="F165" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="3:10">
       <c r="C166" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="3:10">
       <c r="D167" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="3:10">
       <c r="E168" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="3:10">
@@ -7245,10 +7245,10 @@
     </row>
     <row r="170" spans="3:10">
       <c r="F170" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J170" t="s">
         <v>15</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="171" spans="3:10">
       <c r="E171" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="3:10">
@@ -7266,10 +7266,10 @@
     </row>
     <row r="173" spans="3:10">
       <c r="F173" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I173" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J173" t="s">
         <v>15</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="174" spans="3:10">
       <c r="E174" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="3:10">
@@ -7287,10 +7287,10 @@
     </row>
     <row r="176" spans="3:10">
       <c r="F176" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I176" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J176" t="s">
         <v>15</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="177" spans="4:10">
       <c r="E177" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="4:10" ht="18">
@@ -7308,10 +7308,10 @@
     </row>
     <row r="179" spans="4:10">
       <c r="F179" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I179" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J179" t="s">
         <v>15</v>
@@ -7319,10 +7319,10 @@
     </row>
     <row r="180" spans="4:10">
       <c r="D180" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I180" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J180" t="s">
         <v>15</v>
@@ -7330,10 +7330,10 @@
     </row>
     <row r="181" spans="4:10" ht="78" customHeight="1">
       <c r="E181" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J181" t="s">
         <v>15</v>
@@ -7341,30 +7341,30 @@
     </row>
     <row r="182" spans="4:10">
       <c r="F182" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="4:10">
       <c r="F183" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="4:10">
       <c r="F184" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="4:10">
       <c r="E185" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="4:10">
       <c r="D186" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I186" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J186" t="s">
         <v>15</v>
@@ -7372,32 +7372,32 @@
     </row>
     <row r="187" spans="4:10">
       <c r="E187" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="4:10">
       <c r="F188" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="4:10">
       <c r="F189" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="4:10">
       <c r="F190" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" spans="4:10">
       <c r="F191" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="192" spans="4:10">
       <c r="E192" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="4:9">
@@ -7407,22 +7407,22 @@
     </row>
     <row r="194" spans="4:9">
       <c r="F194" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="4:9">
       <c r="F195" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="4:9">
       <c r="F196" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="197" spans="4:9">
       <c r="E197" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="4:9">
@@ -7432,35 +7432,35 @@
     </row>
     <row r="199" spans="4:9">
       <c r="F199" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="4:9">
       <c r="F200" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="4:9">
       <c r="F201" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="202" spans="4:9">
       <c r="D202" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I202" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="4:9">
       <c r="E203" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="204" spans="4:9">
       <c r="F204" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="205" spans="4:9">
@@ -7470,33 +7470,33 @@
     </row>
     <row r="206" spans="4:9">
       <c r="F206" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207" spans="4:9">
       <c r="F207" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="208" spans="4:9" ht="36">
       <c r="D208" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="209" spans="2:10">
       <c r="E209" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="2:10">
       <c r="F210" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I210" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="2:10">
@@ -7504,31 +7504,31 @@
         <v>89</v>
       </c>
       <c r="I211" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="2:10">
       <c r="F212" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I212" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J212" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213" spans="2:10">
       <c r="E213" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="2:10">
       <c r="F214" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I214" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="2:10">
@@ -7536,31 +7536,31 @@
         <v>89</v>
       </c>
       <c r="I215" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="216" spans="2:10">
       <c r="F216" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I216" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J216" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217" spans="2:10">
       <c r="E217" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="218" spans="2:10">
       <c r="F218" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I218" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="2:10">
@@ -7568,52 +7568,52 @@
         <v>89</v>
       </c>
       <c r="I219" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="2:10">
       <c r="F220" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I220" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J220" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="221" spans="2:10">
       <c r="E221" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="222" spans="2:10" ht="108">
       <c r="F222" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I222" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J222" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="2:10">
       <c r="B223" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="2:10" ht="54">
       <c r="C224" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" spans="3:10">
       <c r="C225" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I225" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J225" t="s">
         <v>15</v>
@@ -7621,35 +7621,35 @@
     </row>
     <row r="226" spans="3:10">
       <c r="D226" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="3:10">
       <c r="D227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="3:10">
       <c r="D228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="3:10">
       <c r="D229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="3:10">
       <c r="D230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="3:10">
       <c r="C231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I231" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J231" t="s">
         <v>15</v>
@@ -7657,277 +7657,277 @@
     </row>
     <row r="232" spans="3:10">
       <c r="D232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="3:10">
       <c r="E233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234" spans="3:10">
       <c r="E234" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="235" spans="3:10">
       <c r="E235" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="236" spans="3:10">
       <c r="D236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="3:10">
       <c r="E237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="238" spans="3:10">
       <c r="E238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="239" spans="3:10">
       <c r="E239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="240" spans="3:10">
       <c r="D240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="241" spans="4:5">
       <c r="E241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="4:5">
       <c r="E242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="243" spans="4:5">
       <c r="E243" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="244" spans="4:5">
       <c r="D244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="245" spans="4:5">
       <c r="E245" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="246" spans="4:5">
       <c r="E246" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="247" spans="4:5">
       <c r="E247" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="4:5">
       <c r="D248" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="4:5">
       <c r="E249" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="4:5">
       <c r="E250" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="251" spans="4:5">
       <c r="E251" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="252" spans="4:5">
       <c r="D252" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="4:5">
       <c r="E253" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="4:5">
       <c r="E254" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="255" spans="4:5">
       <c r="E255" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="256" spans="4:5">
       <c r="D256" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="257" spans="4:6">
       <c r="E257" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="258" spans="4:6">
       <c r="E258" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="259" spans="4:6">
       <c r="E259" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="260" spans="4:6">
       <c r="D260" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="261" spans="4:6">
       <c r="E261" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="4:6">
       <c r="E262" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="263" spans="4:6">
       <c r="E263" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="4:6" ht="36">
       <c r="D264" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="4:6">
       <c r="E265" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="266" spans="4:6">
       <c r="E266" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="267" spans="4:6">
       <c r="E267" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="4:6">
       <c r="D268" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="4:6">
       <c r="E269" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="270" spans="4:6">
       <c r="F270" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="4:6">
       <c r="F271" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="4:6">
       <c r="E272" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="273" spans="4:6">
       <c r="F273" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="274" spans="4:6">
       <c r="F274" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="275" spans="4:6">
       <c r="E275" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="276" spans="4:6">
       <c r="F276" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" spans="4:6">
       <c r="E277" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="278" spans="4:6">
       <c r="F278" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="279" spans="4:6">
       <c r="D279" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="280" spans="4:6">
       <c r="E280" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="281" spans="4:6">
       <c r="D281" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="4:6">
       <c r="E282" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="283" spans="4:6">
       <c r="D283" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="284" spans="4:6">
       <c r="E284" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="285" spans="4:6">
       <c r="D285" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="286" spans="4:6">
       <c r="E286" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7943,8 +7943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C4E50-CDA6-394C-9187-28288E765552}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A5" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7983,16 +7983,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="36">
       <c r="B3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -8000,10 +8000,10 @@
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="C4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -8011,35 +8011,35 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36">
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -8047,18 +8047,18 @@
     </row>
     <row r="9" spans="1:7" ht="36">
       <c r="D9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -8066,72 +8066,72 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="D14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="E18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="36">
       <c r="D19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="E20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -8139,12 +8139,12 @@
     </row>
     <row r="21" spans="4:7">
       <c r="D21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="E22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
